--- a/arranged_dataset/review/cbs_sime3_review.xlsx
+++ b/arranged_dataset/review/cbs_sime3_review.xlsx
@@ -1024,10 +1024,10 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F2">
-        <v>-0.3092650101632138</v>
+        <v>0.7737572658121945</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100" customHeight="1">
@@ -1041,10 +1041,10 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F3">
-        <v>-0.4570358183462149</v>
+        <v>1.143468460900818</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="100" customHeight="1">
@@ -1058,10 +1058,10 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F4">
-        <v>-0.5395600386362311</v>
+        <v>1.349937712049494</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="100" customHeight="1">
@@ -1075,10 +1075,10 @@
         <v>1.5</v>
       </c>
       <c r="E5">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F5">
-        <v>-0.6495322833276466</v>
+        <v>1.625079808863977</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="100" customHeight="1">
@@ -1092,10 +1092,10 @@
         <v>2.5</v>
       </c>
       <c r="E6">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F6">
-        <v>-0.5686580387122437</v>
+        <v>1.422738669931979</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1">
@@ -1109,10 +1109,10 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F7">
-        <v>-0.4570358183462149</v>
+        <v>1.143468460900818</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100" customHeight="1">
@@ -1126,10 +1126,10 @@
         <v>2.5</v>
       </c>
       <c r="E8">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F8">
-        <v>-0.5686580387122437</v>
+        <v>1.422738669931979</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="100" customHeight="1">
@@ -1143,10 +1143,10 @@
         <v>16</v>
       </c>
       <c r="E9">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F9">
-        <v>-0.2573901620504003</v>
+        <v>0.6439703862068669</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="100" customHeight="1">
@@ -1160,10 +1160,10 @@
         <v>6.5</v>
       </c>
       <c r="E10">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F10">
-        <v>-0.4138412402429892</v>
+        <v>1.035398949146402</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100" customHeight="1">
@@ -1177,10 +1177,10 @@
         <v>6.5</v>
       </c>
       <c r="E11">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F11">
-        <v>-0.4138412402429892</v>
+        <v>1.035398949146402</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100" customHeight="1">
@@ -1194,10 +1194,10 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F12">
-        <v>-0.4932975155466081</v>
+        <v>1.234192437934879</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -1211,10 +1211,10 @@
         <v>8.5</v>
       </c>
       <c r="E13">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F13">
-        <v>-0.3688450653796395</v>
+        <v>0.9228219808825211</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -1228,10 +1228,10 @@
         <v>1.5</v>
       </c>
       <c r="E14">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F14">
-        <v>-0.6495322833276466</v>
+        <v>1.625079808863977</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -1245,10 +1245,10 @@
         <v>14</v>
       </c>
       <c r="E15">
-        <v>-0.15522</v>
+        <v>0.3883485</v>
       </c>
       <c r="F15">
-        <v>-0.2817693086215891</v>
+        <v>0.7049651356090141</v>
       </c>
     </row>
   </sheetData>
